--- a/biology/Botanique/Ipomoea_cairica/Ipomoea_cairica.xlsx
+++ b/biology/Botanique/Ipomoea_cairica/Ipomoea_cairica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ipomoea cairica , Ipomée du Caire ou Grande ipomée est une plante herbacée de la famille des Convolvulaceae.
 </t>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Ipomoea cairica est une plante rampante vivace qui se multiplie exclusivement par graines[2].
-Feuilles
-Les feuilles sont simples, alternes et palmilobées en 5 ou 7 segments. Leur apex est émarginé mucroné[2].
-Fleurs
-Les fleurs sont en forme d'entonnoir de couleur blanche à lavande[2].
-Fruits
-Les fruits sont des capsules globuleuses mesurant environ 1 cm de diamètre et contenant des graines fortement pubescentes[2].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ipomoea cairica est une plante rampante vivace qui se multiplie exclusivement par graines.
 </t>
         </is>
       </c>
@@ -546,15 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Son aire d'origine est incertaine mais s'étend vraisemblablement depuis la Macaronésie à l'ouest, jusqu'à la péninsule Arabique à l'est[réf. souhaitée].
-Caractère envahissant
-Elle a été introduite dans la plupart des régions de climat tropical ou de climat méditerranéen, où elle peut devenir parfois envahissante. Elle est considérée comme telle en Nouvelle-Calédonie, où elle a été importée comme plante ornementale en 1845[2],[3], et le long de la côte de Nouvelle-Galles du Sud[réf. souhaitée].
-En Nouvelle-Calédonie, le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat[4].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont simples, alternes et palmilobées en 5 ou 7 segments. Leur apex est émarginé mucroné.
 </t>
         </is>
       </c>
@@ -580,12 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Toxicité</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette liane provoque des symptômes respiratoires si elle est ingérée[2].
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont en forme d'entonnoir de couleur blanche à lavande.
 </t>
         </is>
       </c>
@@ -611,10 +631,153 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des capsules globuleuses mesurant environ 1 cm de diamètre et contenant des graines fortement pubescentes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ipomoea_cairica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ipomoea_cairica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire d'origine est incertaine mais s'étend vraisemblablement depuis la Macaronésie à l'ouest, jusqu'à la péninsule Arabique à l'est[réf. souhaitée].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ipomoea_cairica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ipomoea_cairica</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractère envahissant</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été introduite dans la plupart des régions de climat tropical ou de climat méditerranéen, où elle peut devenir parfois envahissante. Elle est considérée comme telle en Nouvelle-Calédonie, où elle a été importée comme plante ornementale en 1845 et le long de la côte de Nouvelle-Galles du Sud[réf. souhaitée].
+En Nouvelle-Calédonie, le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ipomoea_cairica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ipomoea_cairica</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liane provoque des symptômes respiratoires si elle est ingérée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ipomoea_cairica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ipomoea_cairica</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Ipomoea palmata Forssk.
 Ipomoea stipulacea Jacq.
